--- a/credentialsFile.xlsx
+++ b/credentialsFile.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1" state="visible"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>USERNAME</t>
   </si>
@@ -39,11 +41,15 @@
   <si>
     <t>uditeamacn4@gmail.com</t>
   </si>
+  <si>
+    <t>Success</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -79,32 +85,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -136,6 +142,9 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">

--- a/credentialsFile.xlsx
+++ b/credentialsFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="20">
   <si>
     <t>USERNAME</t>
   </si>
@@ -43,6 +43,36 @@
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fail: The password you entered is incorrect.</t>
+  </si>
+  <si>
+    <t>Fail: This account dont exist</t>
+  </si>
+  <si>
+    <t>Fail: [[AndroidDriver:  on LINUX (872ecd5b-06a1-42f0-9bc3-d3779ee1e9ac)] -&gt; id: com.pinterest:id/signup_name]</t>
+  </si>
+  <si>
+    <t>Fail: [[AndroidDriver:  on LINUX (b21e32bc-9611-4aed-bba3-2d20048e7630)] -&gt; id: com.pinterest:id/signup_name]</t>
+  </si>
+  <si>
+    <t>Fail: Hi, Cristian Camilo Isaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Login Successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Login Fail: The password you entered is incorrect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Login Fail: Hi, Cristian Camilo Isaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Login Fail: Sorry this doesn't look like a valid email</t>
   </si>
 </sst>
 </file>
@@ -123,8 +153,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -134,6 +164,9 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -143,7 +176,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -153,6 +186,9 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -161,6 +197,9 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -168,6 +207,9 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
